--- a/CSV/工作簿1.xlsx
+++ b/CSV/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MuQianQiu\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E0843E-8A3E-4BD9-BBC0-288B8734843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593ABB1F-4BE0-4306-BC4F-60894A6BCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{DB0C4287-CE3D-4264-A616-40F356434A2C}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="445">
   <si>
     <t>Index</t>
   </si>
@@ -1424,6 +1424,134 @@
   </si>
   <si>
     <t>Skill2Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方兰生·浮灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳少恭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巺芳·寂桐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百里屠苏·天墉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古剑焚寂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古剑奇谭一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄铃·熊猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑衣少侠传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳少恭·蓬莱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳华如梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百里屠苏·黑猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花幻梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹千觞·巫咸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风晴雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风晴雪·绵羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦炭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房功夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红玉·道服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换后无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悭臾·水虺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻开对手手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百里屠苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑舞红袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永相随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉梦江湖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,14 +1598,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1930,22 +2052,22 @@
       <c r="B2">
         <v>101</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
         <v>62</v>
       </c>
       <c r="I2">
@@ -1959,22 +2081,22 @@
       <c r="B3">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>63</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
         <v>66</v>
       </c>
       <c r="I3">
@@ -1988,22 +2110,22 @@
       <c r="B4">
         <v>103</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
         <v>69</v>
       </c>
       <c r="I4">
@@ -2017,22 +2139,22 @@
       <c r="B5">
         <v>104</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
         <v>73</v>
       </c>
       <c r="I5">
@@ -2046,22 +2168,22 @@
       <c r="B6">
         <v>105</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>74</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
         <v>77</v>
       </c>
       <c r="I6">
@@ -2075,22 +2197,22 @@
       <c r="B7">
         <v>106</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
         <v>80</v>
       </c>
       <c r="I7">
@@ -2104,22 +2226,22 @@
       <c r="B8">
         <v>107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>81</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8">
@@ -2133,22 +2255,22 @@
       <c r="B9">
         <v>108</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
         <v>86</v>
       </c>
       <c r="I9">
@@ -2162,22 +2284,22 @@
       <c r="B10">
         <v>109</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>87</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
         <v>89</v>
       </c>
       <c r="I10">
@@ -2191,22 +2313,22 @@
       <c r="B11">
         <v>110</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>90</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
         <v>92</v>
       </c>
       <c r="I11">
@@ -2220,22 +2342,22 @@
       <c r="B12">
         <v>111</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>93</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>96</v>
       </c>
       <c r="I12">
@@ -2249,22 +2371,22 @@
       <c r="B13">
         <v>112</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>100</v>
       </c>
       <c r="I13">
@@ -2278,22 +2400,22 @@
       <c r="B14">
         <v>113</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>101</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
       <c r="I14">
@@ -2307,22 +2429,22 @@
       <c r="B15">
         <v>114</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>104</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>106</v>
       </c>
       <c r="I15">
@@ -2336,22 +2458,22 @@
       <c r="B16">
         <v>115</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>107</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
       <c r="I16">
@@ -2365,22 +2487,22 @@
       <c r="B17">
         <v>116</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>110</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>112</v>
       </c>
       <c r="I17">
@@ -2394,22 +2516,22 @@
       <c r="B18">
         <v>117</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>113</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>115</v>
       </c>
       <c r="I18">
@@ -2423,22 +2545,22 @@
       <c r="B19">
         <v>118</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>116</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>118</v>
       </c>
       <c r="I19">
@@ -2452,22 +2574,22 @@
       <c r="B20">
         <v>119</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>119</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>121</v>
       </c>
       <c r="I20">
@@ -2481,22 +2603,22 @@
       <c r="B21">
         <v>120</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>122</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>124</v>
       </c>
       <c r="I21">
@@ -2510,22 +2632,22 @@
       <c r="B22">
         <v>121</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>125</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>127</v>
       </c>
       <c r="I22">
@@ -2539,22 +2661,22 @@
       <c r="B23">
         <v>122</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>128</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>131</v>
       </c>
       <c r="I23">
@@ -2568,22 +2690,22 @@
       <c r="B24">
         <v>123</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>132</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>134</v>
       </c>
       <c r="I24">
@@ -2597,22 +2719,22 @@
       <c r="B25">
         <v>124</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>135</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>137</v>
       </c>
       <c r="I25">
@@ -2626,22 +2748,22 @@
       <c r="B26">
         <v>125</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>138</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>141</v>
       </c>
       <c r="I26">
@@ -2655,22 +2777,22 @@
       <c r="B27">
         <v>126</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>142</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>144</v>
       </c>
       <c r="I27">
@@ -2684,22 +2806,22 @@
       <c r="B28">
         <v>127</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>145</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>147</v>
       </c>
       <c r="I28">
@@ -2713,22 +2835,22 @@
       <c r="B29">
         <v>128</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>148</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>150</v>
       </c>
       <c r="I29">
@@ -2742,22 +2864,22 @@
       <c r="B30">
         <v>129</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
         <v>152</v>
       </c>
       <c r="I30">
@@ -2774,22 +2896,22 @@
       <c r="B31">
         <v>130</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
         <v>154</v>
       </c>
       <c r="I31">
@@ -2806,22 +2928,22 @@
       <c r="B32">
         <v>131</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
         <v>156</v>
       </c>
       <c r="I32">
@@ -2838,22 +2960,22 @@
       <c r="B33">
         <v>132</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s">
         <v>158</v>
       </c>
       <c r="I33">
@@ -2870,22 +2992,22 @@
       <c r="B34">
         <v>133</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" t="s">
         <v>160</v>
       </c>
       <c r="I34">
@@ -2902,22 +3024,22 @@
       <c r="B35">
         <v>134</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" t="s">
         <v>162</v>
       </c>
       <c r="I35">
@@ -2934,22 +3056,22 @@
       <c r="B36">
         <v>135</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" t="s">
         <v>164</v>
       </c>
       <c r="I36">
@@ -2966,22 +3088,22 @@
       <c r="B37">
         <v>136</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" t="s">
         <v>166</v>
       </c>
       <c r="I37">
@@ -2998,22 +3120,22 @@
       <c r="B38">
         <v>137</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" t="s">
         <v>168</v>
       </c>
       <c r="I38">
@@ -3030,22 +3152,22 @@
       <c r="B39">
         <v>138</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
         <v>170</v>
       </c>
       <c r="I39">
@@ -3062,22 +3184,22 @@
       <c r="B40">
         <v>139</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" t="s">
         <v>172</v>
       </c>
       <c r="I40">
@@ -3094,22 +3216,22 @@
       <c r="B41">
         <v>140</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" t="s">
         <v>174</v>
       </c>
       <c r="I41">
@@ -3126,22 +3248,22 @@
       <c r="B42">
         <v>141</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" t="s">
         <v>176</v>
       </c>
       <c r="I42">
@@ -3158,22 +3280,22 @@
       <c r="B43">
         <v>142</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
         <v>178</v>
       </c>
       <c r="I43">
@@ -3190,22 +3312,22 @@
       <c r="B44">
         <v>143</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s">
         <v>180</v>
       </c>
       <c r="I44">
@@ -3222,22 +3344,22 @@
       <c r="B45">
         <v>144</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>181</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" t="s">
         <v>182</v>
       </c>
       <c r="I45">
@@ -3254,22 +3376,22 @@
       <c r="B46">
         <v>201</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>183</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>184</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" t="s">
         <v>185</v>
       </c>
       <c r="I46">
@@ -3283,22 +3405,22 @@
       <c r="B47">
         <v>202</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>186</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>187</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" t="s">
         <v>188</v>
       </c>
       <c r="I47">
@@ -3312,22 +3434,22 @@
       <c r="B48">
         <v>203</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>189</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>190</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" t="s">
         <v>191</v>
       </c>
       <c r="I48">
@@ -3341,22 +3463,22 @@
       <c r="B49">
         <v>204</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>192</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" t="s">
         <v>194</v>
       </c>
       <c r="I49">
@@ -3370,22 +3492,22 @@
       <c r="B50">
         <v>205</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>195</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" t="s">
         <v>197</v>
       </c>
       <c r="I50">
@@ -3399,22 +3521,22 @@
       <c r="B51">
         <v>206</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>198</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" t="s">
         <v>200</v>
       </c>
       <c r="I51">
@@ -3428,22 +3550,22 @@
       <c r="B52">
         <v>207</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>201</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" t="s">
         <v>203</v>
       </c>
       <c r="I52">
@@ -3457,22 +3579,22 @@
       <c r="B53">
         <v>208</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>204</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>205</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" t="s">
         <v>206</v>
       </c>
       <c r="I53">
@@ -3486,22 +3608,22 @@
       <c r="B54">
         <v>209</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>207</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>208</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" t="s">
         <v>209</v>
       </c>
       <c r="I54">
@@ -3515,22 +3637,22 @@
       <c r="B55">
         <v>210</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>210</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>211</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" t="s">
         <v>212</v>
       </c>
       <c r="I55">
@@ -3544,22 +3666,22 @@
       <c r="B56">
         <v>211</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>213</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>214</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>215</v>
       </c>
       <c r="I56">
@@ -3573,22 +3695,22 @@
       <c r="B57">
         <v>212</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>216</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>217</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>99</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" t="s">
         <v>218</v>
       </c>
       <c r="I57">
@@ -3602,22 +3724,22 @@
       <c r="B58">
         <v>213</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>219</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>220</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>99</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" t="s">
         <v>221</v>
       </c>
       <c r="I58">
@@ -3631,22 +3753,22 @@
       <c r="B59">
         <v>214</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>222</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>223</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>99</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>224</v>
       </c>
       <c r="I59">
@@ -3660,22 +3782,22 @@
       <c r="B60">
         <v>215</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>225</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>226</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>99</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>227</v>
       </c>
       <c r="I60">
@@ -3689,22 +3811,22 @@
       <c r="B61">
         <v>216</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>228</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>229</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>99</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" t="s">
         <v>230</v>
       </c>
       <c r="I61">
@@ -3718,22 +3840,22 @@
       <c r="B62">
         <v>217</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>231</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>232</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>99</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" t="s">
         <v>233</v>
       </c>
       <c r="I62">
@@ -3747,22 +3869,22 @@
       <c r="B63">
         <v>218</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>234</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>235</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>99</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" t="s">
         <v>236</v>
       </c>
       <c r="I63">
@@ -3776,22 +3898,22 @@
       <c r="B64">
         <v>219</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>237</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>238</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>140</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" t="s">
         <v>239</v>
       </c>
       <c r="I64">
@@ -3805,22 +3927,22 @@
       <c r="B65">
         <v>220</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>240</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>75</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>241</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>140</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" t="s">
         <v>242</v>
       </c>
       <c r="I65">
@@ -3834,22 +3956,22 @@
       <c r="B66">
         <v>221</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>243</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>75</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>244</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>140</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" t="s">
         <v>245</v>
       </c>
       <c r="I66">
@@ -3863,22 +3985,22 @@
       <c r="B67">
         <v>222</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>246</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" t="s">
         <v>247</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>140</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" t="s">
         <v>248</v>
       </c>
       <c r="I67">
@@ -3892,22 +4014,22 @@
       <c r="B68">
         <v>223</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>249</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>59</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" t="s">
         <v>250</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>140</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" t="s">
         <v>251</v>
       </c>
       <c r="I68">
@@ -3921,22 +4043,22 @@
       <c r="B69">
         <v>224</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>252</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" t="s">
         <v>253</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>130</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" t="s">
         <v>254</v>
       </c>
       <c r="I69">
@@ -3950,22 +4072,22 @@
       <c r="B70">
         <v>225</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>255</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>64</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" t="s">
         <v>256</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>130</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" t="s">
         <v>257</v>
       </c>
       <c r="I70">
@@ -3979,22 +4101,22 @@
       <c r="B71">
         <v>226</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>258</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>75</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>130</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" t="s">
         <v>260</v>
       </c>
       <c r="I71">
@@ -4008,22 +4130,22 @@
       <c r="B72">
         <v>227</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>261</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" t="s">
         <v>262</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>130</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" t="s">
         <v>263</v>
       </c>
       <c r="I72">
@@ -4037,22 +4159,22 @@
       <c r="B73">
         <v>228</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>264</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>64</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" t="s">
         <v>265</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>95</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" t="s">
         <v>266</v>
       </c>
       <c r="I73">
@@ -4066,22 +4188,22 @@
       <c r="B74">
         <v>229</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74">
         <v>6</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>71</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" t="s">
         <v>267</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="G74" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" t="s">
         <v>268</v>
       </c>
       <c r="I74">
@@ -4098,22 +4220,22 @@
       <c r="B75">
         <v>230</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>71</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" t="s">
         <v>269</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H75" s="1" t="s">
+      <c r="G75" t="s">
+        <v>61</v>
+      </c>
+      <c r="H75" t="s">
         <v>270</v>
       </c>
       <c r="I75">
@@ -4130,22 +4252,22 @@
       <c r="B76">
         <v>231</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>75</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" t="s">
         <v>271</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H76" s="1" t="s">
+      <c r="G76" t="s">
+        <v>61</v>
+      </c>
+      <c r="H76" t="s">
         <v>272</v>
       </c>
       <c r="I76">
@@ -4162,22 +4284,22 @@
       <c r="B77">
         <v>232</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" t="s">
         <v>273</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H77" s="1" t="s">
+      <c r="G77" t="s">
+        <v>61</v>
+      </c>
+      <c r="H77" t="s">
         <v>274</v>
       </c>
       <c r="I77">
@@ -4194,22 +4316,22 @@
       <c r="B78">
         <v>233</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>21</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>59</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" t="s">
         <v>275</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="G78" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" t="s">
         <v>276</v>
       </c>
       <c r="I78">
@@ -4226,22 +4348,22 @@
       <c r="B79">
         <v>234</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>22</v>
       </c>
       <c r="D79">
         <v>6</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" t="s">
         <v>277</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H79" s="1" t="s">
+      <c r="G79" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" t="s">
         <v>278</v>
       </c>
       <c r="I79">
@@ -4258,22 +4380,22 @@
       <c r="B80">
         <v>235</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>23</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>64</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" t="s">
         <v>279</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H80" s="1" t="s">
+      <c r="G80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" t="s">
         <v>280</v>
       </c>
       <c r="I80">
@@ -4290,22 +4412,22 @@
       <c r="B81">
         <v>236</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>24</v>
       </c>
       <c r="D81">
         <v>6</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>64</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" t="s">
         <v>281</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H81" s="1" t="s">
+      <c r="G81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" t="s">
         <v>282</v>
       </c>
       <c r="I81">
@@ -4322,22 +4444,22 @@
       <c r="B82">
         <v>237</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>25</v>
       </c>
       <c r="D82">
         <v>4</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>71</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" t="s">
         <v>283</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="G82" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" t="s">
         <v>284</v>
       </c>
       <c r="I82">
@@ -4354,22 +4476,22 @@
       <c r="B83">
         <v>238</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>26</v>
       </c>
       <c r="D83">
         <v>4</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>59</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" t="s">
         <v>285</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H83" s="1" t="s">
+      <c r="G83" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" t="s">
         <v>286</v>
       </c>
       <c r="I83">
@@ -4386,22 +4508,22 @@
       <c r="B84">
         <v>239</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>27</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>64</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" t="s">
         <v>287</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H84" s="1" t="s">
+      <c r="G84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" t="s">
         <v>288</v>
       </c>
       <c r="I84">
@@ -4418,22 +4540,22 @@
       <c r="B85">
         <v>240</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>28</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>71</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" t="s">
         <v>289</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="G85" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" t="s">
         <v>290</v>
       </c>
       <c r="I85">
@@ -4450,22 +4572,22 @@
       <c r="B86">
         <v>241</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>29</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>75</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" t="s">
         <v>291</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H86" s="1" t="s">
+      <c r="G86" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" t="s">
         <v>292</v>
       </c>
       <c r="I86">
@@ -4482,22 +4604,22 @@
       <c r="B87">
         <v>242</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>30</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" t="s">
         <v>293</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="G87" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" t="s">
         <v>294</v>
       </c>
       <c r="I87">
@@ -4514,22 +4636,22 @@
       <c r="B88">
         <v>301</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>295</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>71</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" t="s">
         <v>296</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H88" s="1" t="s">
+      <c r="G88" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" t="s">
         <v>297</v>
       </c>
       <c r="I88">
@@ -4543,22 +4665,22 @@
       <c r="B89">
         <v>302</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>298</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>64</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" t="s">
         <v>299</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="G89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" t="s">
         <v>300</v>
       </c>
       <c r="I89">
@@ -4572,22 +4694,22 @@
       <c r="B90">
         <v>303</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>301</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>59</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="G90" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" t="s">
         <v>303</v>
       </c>
       <c r="I90">
@@ -4601,22 +4723,22 @@
       <c r="B91">
         <v>304</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>304</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>75</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" t="s">
         <v>305</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="G91" t="s">
+        <v>61</v>
+      </c>
+      <c r="H91" t="s">
         <v>306</v>
       </c>
       <c r="I91">
@@ -4630,22 +4752,22 @@
       <c r="B92">
         <v>305</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>307</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>59</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" t="s">
         <v>308</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H92" s="1" t="s">
+      <c r="G92" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" t="s">
         <v>309</v>
       </c>
       <c r="I92">
@@ -4659,22 +4781,22 @@
       <c r="B93">
         <v>306</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>310</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>71</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" t="s">
         <v>311</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H93" s="1" t="s">
+      <c r="G93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" t="s">
         <v>312</v>
       </c>
       <c r="I93">
@@ -4688,22 +4810,22 @@
       <c r="B94">
         <v>307</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>313</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>75</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" t="s">
         <v>314</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="G94" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" t="s">
         <v>315</v>
       </c>
       <c r="I94">
@@ -4717,22 +4839,22 @@
       <c r="B95">
         <v>308</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>316</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" t="s">
         <v>317</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H95" s="1" t="s">
+      <c r="G95" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" t="s">
         <v>318</v>
       </c>
       <c r="I95">
@@ -4746,22 +4868,22 @@
       <c r="B96">
         <v>309</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>319</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>71</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" t="s">
         <v>320</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H96" s="1" t="s">
+      <c r="G96" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" t="s">
         <v>321</v>
       </c>
       <c r="I96">
@@ -4775,22 +4897,22 @@
       <c r="B97">
         <v>310</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>322</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>64</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" t="s">
         <v>323</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H97" s="1" t="s">
+      <c r="G97" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" t="s">
         <v>324</v>
       </c>
       <c r="I97">
@@ -4804,22 +4926,22 @@
       <c r="B98">
         <v>311</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>325</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>75</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" t="s">
         <v>326</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" t="s">
         <v>99</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" t="s">
         <v>327</v>
       </c>
       <c r="I98">
@@ -4833,22 +4955,22 @@
       <c r="B99">
         <v>312</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>328</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>75</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" t="s">
         <v>329</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" t="s">
         <v>99</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" t="s">
         <v>330</v>
       </c>
       <c r="I99">
@@ -4862,22 +4984,22 @@
       <c r="B100">
         <v>313</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>331</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>64</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" t="s">
         <v>332</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" t="s">
         <v>99</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" t="s">
         <v>333</v>
       </c>
       <c r="I100">
@@ -4891,22 +5013,22 @@
       <c r="B101">
         <v>314</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>334</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>75</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" t="s">
         <v>335</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" t="s">
         <v>99</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" t="s">
         <v>336</v>
       </c>
       <c r="I101">
@@ -4920,22 +5042,22 @@
       <c r="B102">
         <v>315</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>337</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" t="s">
         <v>338</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" t="s">
         <v>99</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" t="s">
         <v>339</v>
       </c>
       <c r="I102">
@@ -4949,22 +5071,22 @@
       <c r="B103">
         <v>316</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>340</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" t="s">
         <v>59</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" t="s">
         <v>341</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" t="s">
         <v>99</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" t="s">
         <v>342</v>
       </c>
       <c r="I103">
@@ -4978,22 +5100,22 @@
       <c r="B104">
         <v>317</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>343</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" t="s">
         <v>59</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" t="s">
         <v>344</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" t="s">
         <v>99</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" t="s">
         <v>345</v>
       </c>
       <c r="I104">
@@ -5007,22 +5129,22 @@
       <c r="B105">
         <v>318</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>346</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" t="s">
         <v>347</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" t="s">
         <v>99</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" t="s">
         <v>348</v>
       </c>
       <c r="I105">
@@ -5036,22 +5158,22 @@
       <c r="B106">
         <v>319</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>349</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
         <v>71</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" t="s">
         <v>350</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" t="s">
         <v>99</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" t="s">
         <v>351</v>
       </c>
       <c r="I106">
@@ -5065,22 +5187,22 @@
       <c r="B107">
         <v>320</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>352</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" t="s">
         <v>353</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" t="s">
         <v>99</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" t="s">
         <v>354</v>
       </c>
       <c r="I107">
@@ -5094,22 +5216,22 @@
       <c r="B108">
         <v>321</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>355</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
         <v>71</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" t="s">
         <v>356</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" t="s">
         <v>140</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" t="s">
         <v>357</v>
       </c>
       <c r="I108">
@@ -5123,22 +5245,22 @@
       <c r="B109">
         <v>322</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>358</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" t="s">
         <v>359</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" t="s">
         <v>140</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" t="s">
         <v>360</v>
       </c>
       <c r="I109">
@@ -5152,22 +5274,22 @@
       <c r="B110">
         <v>323</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>361</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" t="s">
         <v>64</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" t="s">
         <v>362</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" t="s">
         <v>140</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" t="s">
         <v>363</v>
       </c>
       <c r="I110">
@@ -5181,22 +5303,22 @@
       <c r="B111">
         <v>324</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>364</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" t="s">
         <v>64</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" t="s">
         <v>365</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" t="s">
         <v>140</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" t="s">
         <v>366</v>
       </c>
       <c r="I111">
@@ -5210,22 +5332,22 @@
       <c r="B112">
         <v>325</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>367</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" t="s">
         <v>75</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" t="s">
         <v>368</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" t="s">
         <v>140</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" t="s">
         <v>369</v>
       </c>
       <c r="I112">
@@ -5239,22 +5361,22 @@
       <c r="B113">
         <v>326</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>370</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" t="s">
         <v>59</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" t="s">
         <v>371</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" t="s">
         <v>130</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" t="s">
         <v>372</v>
       </c>
       <c r="I113">
@@ -5268,22 +5390,22 @@
       <c r="B114">
         <v>327</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" t="s">
         <v>373</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" t="s">
         <v>75</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" t="s">
         <v>374</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" t="s">
         <v>130</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" t="s">
         <v>375</v>
       </c>
       <c r="I114">
@@ -5297,22 +5419,22 @@
       <c r="B115">
         <v>328</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>376</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" t="s">
         <v>64</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" t="s">
         <v>377</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" t="s">
         <v>95</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" t="s">
         <v>378</v>
       </c>
       <c r="I115">
@@ -5326,22 +5448,22 @@
       <c r="B116">
         <v>329</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>31</v>
       </c>
       <c r="D116">
         <v>6</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" t="s">
         <v>75</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" t="s">
         <v>379</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H116" s="1" t="s">
+      <c r="G116" t="s">
+        <v>61</v>
+      </c>
+      <c r="H116" t="s">
         <v>380</v>
       </c>
       <c r="I116">
@@ -5358,22 +5480,22 @@
       <c r="B117">
         <v>330</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>32</v>
       </c>
       <c r="D117">
         <v>4</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" t="s">
         <v>75</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" t="s">
         <v>381</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H117" s="1" t="s">
+      <c r="G117" t="s">
+        <v>61</v>
+      </c>
+      <c r="H117" t="s">
         <v>382</v>
       </c>
       <c r="I117">
@@ -5390,22 +5512,22 @@
       <c r="B118">
         <v>331</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" t="s">
         <v>33</v>
       </c>
       <c r="D118">
         <v>6</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" t="s">
         <v>59</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" t="s">
         <v>383</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H118" s="1" t="s">
+      <c r="G118" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" t="s">
         <v>384</v>
       </c>
       <c r="I118">
@@ -5422,22 +5544,22 @@
       <c r="B119">
         <v>332</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>34</v>
       </c>
       <c r="D119">
         <v>4</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" t="s">
         <v>59</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" t="s">
         <v>385</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H119" s="1" t="s">
+      <c r="G119" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" t="s">
         <v>386</v>
       </c>
       <c r="I119">
@@ -5454,22 +5576,22 @@
       <c r="B120">
         <v>333</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>35</v>
       </c>
       <c r="D120">
         <v>4</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" t="s">
         <v>64</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" t="s">
         <v>387</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H120" s="1" t="s">
+      <c r="G120" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" t="s">
         <v>388</v>
       </c>
       <c r="I120">
@@ -5486,22 +5608,22 @@
       <c r="B121">
         <v>334</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>36</v>
       </c>
       <c r="D121">
         <v>6</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" t="s">
         <v>64</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" t="s">
         <v>389</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H121" s="1" t="s">
+      <c r="G121" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" t="s">
         <v>390</v>
       </c>
       <c r="I121">
@@ -5518,22 +5640,22 @@
       <c r="B122">
         <v>335</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>37</v>
       </c>
       <c r="D122">
         <v>6</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" t="s">
         <v>71</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" t="s">
         <v>391</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H122" s="1" t="s">
+      <c r="G122" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" t="s">
         <v>392</v>
       </c>
       <c r="I122">
@@ -5550,22 +5672,22 @@
       <c r="B123">
         <v>336</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>38</v>
       </c>
       <c r="D123">
         <v>4</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" t="s">
         <v>71</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" t="s">
         <v>393</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H123" s="1" t="s">
+      <c r="G123" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" t="s">
         <v>394</v>
       </c>
       <c r="I123">
@@ -5582,22 +5704,22 @@
       <c r="B124">
         <v>337</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>39</v>
       </c>
       <c r="D124">
         <v>4</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" t="s">
         <v>64</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" t="s">
         <v>395</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H124" s="1" t="s">
+      <c r="G124" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" t="s">
         <v>396</v>
       </c>
       <c r="I124">
@@ -5614,22 +5736,22 @@
       <c r="B125">
         <v>338</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>40</v>
       </c>
       <c r="D125">
         <v>4</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" t="s">
         <v>71</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" t="s">
         <v>397</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H125" s="1" t="s">
+      <c r="G125" t="s">
+        <v>61</v>
+      </c>
+      <c r="H125" t="s">
         <v>398</v>
       </c>
       <c r="I125">
@@ -5646,22 +5768,22 @@
       <c r="B126">
         <v>339</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" t="s">
         <v>41</v>
       </c>
       <c r="D126">
         <v>4</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" t="s">
         <v>59</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" t="s">
         <v>399</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H126" s="1" t="s">
+      <c r="G126" t="s">
+        <v>61</v>
+      </c>
+      <c r="H126" t="s">
         <v>400</v>
       </c>
       <c r="I126">
@@ -5678,22 +5800,22 @@
       <c r="B127">
         <v>340</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>42</v>
       </c>
       <c r="D127">
         <v>4</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" t="s">
         <v>71</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" t="s">
         <v>401</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H127" s="1" t="s">
+      <c r="G127" t="s">
+        <v>61</v>
+      </c>
+      <c r="H127" t="s">
         <v>402</v>
       </c>
       <c r="I127">
@@ -5710,22 +5832,22 @@
       <c r="B128">
         <v>341</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" t="s">
         <v>43</v>
       </c>
       <c r="D128">
         <v>4</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" t="s">
         <v>59</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" t="s">
         <v>403</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H128" s="1" t="s">
+      <c r="G128" t="s">
+        <v>61</v>
+      </c>
+      <c r="H128" t="s">
         <v>404</v>
       </c>
       <c r="I128">
@@ -5742,22 +5864,22 @@
       <c r="B129">
         <v>342</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>44</v>
       </c>
       <c r="D129">
         <v>4</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" t="s">
         <v>75</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" t="s">
         <v>405</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H129" s="1" t="s">
+      <c r="G129" t="s">
+        <v>61</v>
+      </c>
+      <c r="H129" t="s">
         <v>406</v>
       </c>
       <c r="I129">
@@ -5778,59 +5900,553 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72473EE4-7DE0-4976-9F62-A87D1A32864D}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.4140625" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J1" t="s">
+        <v>411</v>
+      </c>
+      <c r="K1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" t="s">
+        <v>432</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" t="s">
+        <v>434</v>
+      </c>
+      <c r="H10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>439</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" t="s">
+        <v>443</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>412</v>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/CSV/工作簿1.xlsx
+++ b/CSV/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MuQianQiu\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593ABB1F-4BE0-4306-BC4F-60894A6BCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BBE2B5-BD1C-44F4-B55A-2FAE883FC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{DB0C4287-CE3D-4264-A616-40F356434A2C}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="499">
   <si>
     <t>Index</t>
   </si>
@@ -1553,6 +1553,186 @@
   <si>
     <t>醉梦江湖</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加分数</t>
+  </si>
+  <si>
+    <t>烈山遗族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻开对手手牌</t>
+  </si>
+  <si>
+    <t>阿阮.神女</t>
+  </si>
+  <si>
+    <t>露草流萤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢衣.初七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏夷则.鲛人</t>
+  </si>
+  <si>
+    <t>闻人羽.天罡</t>
+  </si>
+  <si>
+    <t>蓝衫偃师记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换后无效</t>
+  </si>
+  <si>
+    <t>清和真人.温留</t>
+  </si>
+  <si>
+    <t>夏夷则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温茶相待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻人羽.闺秀</t>
+  </si>
+  <si>
+    <t>增加出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古剑奇谭二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华月.魔化</t>
+  </si>
+  <si>
+    <t>交换卡牌</t>
+  </si>
+  <si>
+    <t>阿阮.山鬼</t>
+  </si>
+  <si>
+    <t>保证出现</t>
+  </si>
+  <si>
+    <t>乐无异.捐毒</t>
+  </si>
+  <si>
+    <t>复制技能</t>
+  </si>
+  <si>
+    <t>禺期.无名</t>
+  </si>
+  <si>
+    <t>古剑晗光;昭明;无名之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐无异.偃师</t>
+  </si>
+  <si>
+    <t>沈曦.魔化</t>
+  </si>
+  <si>
+    <t>夏夷则.太华</t>
+  </si>
+  <si>
+    <t>沈夜.紫微</t>
+  </si>
+  <si>
+    <t>流月城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司危.嫣然</t>
+  </si>
+  <si>
+    <t>西陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑缨.劲装</t>
+  </si>
+  <si>
+    <t>一见喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫘祖.梦中人</t>
+  </si>
+  <si>
+    <t>巫炤.吞恨</t>
+  </si>
+  <si>
+    <t>西陵曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云无月.魇魅</t>
+  </si>
+  <si>
+    <t>北洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北洛.冕服</t>
+  </si>
+  <si>
+    <t>刘兄.比木</t>
+  </si>
+  <si>
+    <t>玳之梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫之国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缙云.卸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以玉为戈</t>
+  </si>
+  <si>
+    <t>姬轩辕.玄鹿</t>
+  </si>
+  <si>
+    <t>古剑奇谭三</t>
+  </si>
+  <si>
+    <t>古剑奇谭三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眠霜卧雪</t>
+  </si>
+  <si>
+    <t>玄戈&amp;霓裳.流光</t>
+  </si>
+  <si>
+    <t>岑缨.菡萏</t>
+  </si>
+  <si>
+    <t>北洛.辟邪</t>
+  </si>
+  <si>
+    <t>首山梦时书</t>
+  </si>
+  <si>
+    <t>云无月.华裳</t>
+  </si>
+  <si>
+    <t>姬轩辕.绣春</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1786,56 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1663,12 +1892,12 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{AADA9176-1551-4870-B37C-17E64120B98D}" uniqueName="1" name="Index" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{3E011A7C-D936-4FDF-BD55-8D3035696579}" uniqueName="2" name="CardID" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{32E4FBE9-E052-4526-BBB4-2F9DA804943C}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{32E4FBE9-E052-4526-BBB4-2F9DA804943C}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{95E14D87-FD3A-417E-95FE-A7FCD41E49EC}" uniqueName="4" name="Value" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{4E7C2E80-9892-48C4-9448-724409592A1C}" uniqueName="5" name="Season" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{48C114CD-7F7C-4C5D-8FB2-518B83E0B304}" uniqueName="6" name="Describe" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C392587A-DAF5-42AF-9314-660D06DAB3EF}" uniqueName="7" name="Type" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{968A4902-2F97-44F2-B3F9-67905D40B937}" uniqueName="8" name="Texture" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{4E7C2E80-9892-48C4-9448-724409592A1C}" uniqueName="5" name="Season" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{48C114CD-7F7C-4C5D-8FB2-518B83E0B304}" uniqueName="6" name="Describe" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{C392587A-DAF5-42AF-9314-660D06DAB3EF}" uniqueName="7" name="Type" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{968A4902-2F97-44F2-B3F9-67905D40B937}" uniqueName="8" name="Texture" queryTableFieldId="8" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{958E0C66-5A24-4AF1-9035-A80DB3358BAA}" uniqueName="9" name="Special" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{13A3854D-3667-4120-8DC1-FEB9D499D3E3}" uniqueName="10" name="SpecialName" queryTableFieldId="10"/>
   </tableColumns>
@@ -5900,10 +6129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72473EE4-7DE0-4976-9F62-A87D1A32864D}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5911,7 +6140,7 @@
     <col min="1" max="1" width="9.4140625" customWidth="1"/>
     <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
@@ -6089,6 +6318,9 @@
       <c r="I8" t="s">
         <v>421</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -6186,6 +6418,9 @@
       <c r="I13" t="s">
         <v>421</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -6243,8 +6478,11 @@
       <c r="H16" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6263,194 +6501,535 @@
       <c r="H17" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>439</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" t="s">
+        <v>449</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" t="s">
+        <v>414</v>
+      </c>
+      <c r="H20" t="s">
+        <v>439</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
+        <v>453</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>455</v>
+      </c>
+      <c r="D22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" t="s">
+        <v>456</v>
+      </c>
+      <c r="H22" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" t="s">
+        <v>457</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" t="s">
+        <v>459</v>
+      </c>
+      <c r="E23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" t="s">
+        <v>440</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D25" t="s">
+        <v>415</v>
+      </c>
+      <c r="E25" t="s">
+        <v>456</v>
+      </c>
+      <c r="H25" t="s">
+        <v>439</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D26" t="s">
+        <v>434</v>
+      </c>
+      <c r="H26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" t="s">
+        <v>438</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>459</v>
+      </c>
+      <c r="I27" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>469</v>
+      </c>
+      <c r="D28" t="s">
+        <v>439</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" t="s">
+        <v>439</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" t="s">
+        <v>419</v>
+      </c>
+      <c r="E30" t="s">
+        <v>453</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" t="s">
+        <v>473</v>
+      </c>
+      <c r="H31" t="s">
+        <v>439</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D32" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" t="s">
+        <v>475</v>
+      </c>
+      <c r="H32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" t="s">
+        <v>477</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>478</v>
+      </c>
+      <c r="D34" t="s">
+        <v>440</v>
+      </c>
+      <c r="H34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>479</v>
+      </c>
+      <c r="D35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E35" t="s">
+        <v>480</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>481</v>
+      </c>
+      <c r="D36" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" t="s">
+        <v>482</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D37" t="s">
+        <v>445</v>
+      </c>
+      <c r="E37" t="s">
+        <v>482</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" t="s">
+        <v>445</v>
+      </c>
+      <c r="E38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
+        <v>415</v>
+      </c>
+      <c r="I38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>487</v>
+      </c>
+      <c r="D39" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" t="s">
+        <v>488</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>489</v>
+      </c>
+      <c r="D40" t="s">
+        <v>464</v>
+      </c>
+      <c r="E40" t="s">
+        <v>491</v>
+      </c>
+      <c r="H40" t="s">
+        <v>445</v>
+      </c>
+      <c r="I40" t="s">
+        <v>492</v>
+      </c>
+      <c r="K40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>493</v>
+      </c>
+      <c r="D41" t="s">
+        <v>462</v>
+      </c>
+      <c r="H41" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E42" t="s">
+        <v>490</v>
+      </c>
+      <c r="H42" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>495</v>
+      </c>
+      <c r="D43" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" t="s">
+        <v>496</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>497</v>
+      </c>
+      <c r="D44" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
+      <c r="C45" t="s">
+        <v>498</v>
+      </c>
+      <c r="D45" t="s">
+        <v>466</v>
+      </c>
+      <c r="H45" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND($A4="禁用技能", COLUMN()-COLUMN($A4)&lt;5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:K4 A6:K31 A5:C5 E5:K5 H32 D32:E33 G33 H35:H36 D34:D38 E35:E38 E40">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR(XEX1048547="禁用技能",XEY1048547="禁用技能",AND(COLUMN()&gt;=COLUMN(XEX1048547),COLUMN()&lt;=COLUMN(XFB1048547),OR($D1048547="禁用技能",$E1048547="禁用技能")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR(A4="禁用技能",B4="禁用技能",AND(COLUMN()&gt;=COLUMN(A4),COLUMN()&lt;=COLUMN(E4),OR($D4="禁用技能",$E4="禁用技能")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{3EE357C1-1BC6-4CF2-AC7C-DE4E7502B1E2}">
+      <formula1>"禁用技能,保证出现,增加分数,复制技能,交换卡牌,翻开对手手牌,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{FEA866F9-1B57-4F35-961C-B8250A0CC34D}">
+      <formula1>"禁用技能,保证出现,增加分数,复制技能,交换卡牌,翻开对手手牌,交换后无效"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
